--- a/attendance-files/SIP/SIP (G) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (G) Attendance Sheet.xlsx
@@ -1212,13 +1212,15 @@
       <c r="E7" s="22">
         <v>1.0</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f t="shared" ref="J7:J80" si="1">SUM(E7:I7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1240,13 +1242,15 @@
       <c r="E8" s="22">
         <v>1.0</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1268,13 +1272,15 @@
       <c r="E9" s="22">
         <v>1.0</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -1296,13 +1302,15 @@
       <c r="E10" s="22">
         <v>1.0</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -1324,7 +1332,9 @@
       <c r="E11" s="22">
         <v>1.0</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="22">
+        <v>0.0</v>
+      </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -1352,7 +1362,9 @@
       <c r="E12" s="22">
         <v>0.0</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="22">
+        <v>0.0</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -1380,13 +1392,15 @@
       <c r="E13" s="22">
         <v>0.0</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
@@ -1408,13 +1422,15 @@
       <c r="E14" s="22">
         <v>1.0</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -1436,13 +1452,15 @@
       <c r="E15" s="22">
         <v>1.0</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -1464,13 +1482,15 @@
       <c r="E16" s="22">
         <v>1.0</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -1492,13 +1512,15 @@
       <c r="E17" s="22">
         <v>1.0</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -1520,13 +1542,15 @@
       <c r="E18" s="22">
         <v>1.0</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1548,13 +1572,15 @@
       <c r="E19" s="22">
         <v>1.0</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1576,13 +1602,15 @@
       <c r="E20" s="22">
         <v>1.0</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1604,13 +1632,15 @@
       <c r="E21" s="22">
         <v>1.0</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1632,13 +1662,15 @@
       <c r="E22" s="22">
         <v>1.0</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -1660,13 +1692,15 @@
       <c r="E23" s="22">
         <v>1.0</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -1688,7 +1722,9 @@
       <c r="E24" s="22">
         <v>0.0</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="22">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -1716,13 +1752,15 @@
       <c r="E25" s="22">
         <v>1.0</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
@@ -1744,13 +1782,15 @@
       <c r="E26" s="22">
         <v>0.0</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
@@ -1772,13 +1812,15 @@
       <c r="E27" s="22">
         <v>1.0</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
@@ -1800,13 +1842,15 @@
       <c r="E28" s="22">
         <v>0.0</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
@@ -1828,13 +1872,15 @@
       <c r="E29" s="22">
         <v>1.0</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
@@ -1856,13 +1902,15 @@
       <c r="E30" s="22">
         <v>1.0</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
@@ -1884,13 +1932,15 @@
       <c r="E31" s="22">
         <v>1.0</v>
       </c>
-      <c r="F31" s="23"/>
+      <c r="F31" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
@@ -1912,13 +1962,15 @@
       <c r="E32" s="22">
         <v>1.0</v>
       </c>
-      <c r="F32" s="23"/>
+      <c r="F32" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
@@ -1940,13 +1992,15 @@
       <c r="E33" s="22">
         <v>1.0</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
@@ -1968,13 +2022,15 @@
       <c r="E34" s="22">
         <v>1.0</v>
       </c>
-      <c r="F34" s="23"/>
+      <c r="F34" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
@@ -1996,13 +2052,15 @@
       <c r="E35" s="22">
         <v>1.0</v>
       </c>
-      <c r="F35" s="23"/>
+      <c r="F35" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
@@ -2024,13 +2082,15 @@
       <c r="E36" s="22">
         <v>1.0</v>
       </c>
-      <c r="F36" s="23"/>
+      <c r="F36" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
@@ -2052,13 +2112,15 @@
       <c r="E37" s="22">
         <v>1.0</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
@@ -2080,13 +2142,15 @@
       <c r="E38" s="22">
         <v>1.0</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
@@ -2108,13 +2172,15 @@
       <c r="E39" s="22">
         <v>1.0</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
@@ -2136,13 +2202,15 @@
       <c r="E40" s="22">
         <v>0.0</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
@@ -2164,13 +2232,15 @@
       <c r="E41" s="22">
         <v>1.0</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
@@ -2192,13 +2262,15 @@
       <c r="E42" s="22">
         <v>1.0</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="F42" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
@@ -2220,13 +2292,15 @@
       <c r="E43" s="22">
         <v>1.0</v>
       </c>
-      <c r="F43" s="23"/>
+      <c r="F43" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
@@ -2248,13 +2322,15 @@
       <c r="E44" s="22">
         <v>1.0</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
@@ -2276,13 +2352,15 @@
       <c r="E45" s="22">
         <v>1.0</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
@@ -2304,7 +2382,9 @@
       <c r="E46" s="22">
         <v>1.0</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="22">
+        <v>0.0</v>
+      </c>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
@@ -2332,13 +2412,15 @@
       <c r="E47" s="22">
         <v>0.0</v>
       </c>
-      <c r="F47" s="23"/>
+      <c r="F47" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
@@ -2360,7 +2442,9 @@
       <c r="E48" s="22">
         <v>1.0</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="22">
+        <v>0.0</v>
+      </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -2388,13 +2472,15 @@
       <c r="E49" s="22">
         <v>1.0</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
@@ -2416,13 +2502,15 @@
       <c r="E50" s="22">
         <v>0.0</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
@@ -2444,13 +2532,15 @@
       <c r="E51" s="22">
         <v>1.0</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
@@ -2472,13 +2562,15 @@
       <c r="E52" s="22">
         <v>1.0</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
@@ -2500,13 +2592,15 @@
       <c r="E53" s="22">
         <v>1.0</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
@@ -2528,13 +2622,15 @@
       <c r="E54" s="22">
         <v>0.0</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
@@ -2556,13 +2652,15 @@
       <c r="E55" s="22">
         <v>1.0</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
@@ -2584,13 +2682,15 @@
       <c r="E56" s="22">
         <v>1.0</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
@@ -2612,13 +2712,15 @@
       <c r="E57" s="22">
         <v>1.0</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
@@ -2640,13 +2742,15 @@
       <c r="E58" s="22">
         <v>0.0</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
@@ -2668,13 +2772,15 @@
       <c r="E59" s="22">
         <v>1.0</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
@@ -2696,13 +2802,15 @@
       <c r="E60" s="22">
         <v>0.0</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
@@ -2724,13 +2832,15 @@
       <c r="E61" s="22">
         <v>1.0</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
@@ -2752,13 +2862,15 @@
       <c r="E62" s="22">
         <v>0.0</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
@@ -2780,13 +2892,15 @@
       <c r="E63" s="22">
         <v>0.0</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
@@ -2808,13 +2922,15 @@
       <c r="E64" s="22">
         <v>1.0</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
@@ -2836,13 +2952,15 @@
       <c r="E65" s="22">
         <v>1.0</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -2864,13 +2982,15 @@
       <c r="E66" s="22">
         <v>1.0</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
@@ -2892,13 +3012,15 @@
       <c r="E67" s="22">
         <v>1.0</v>
       </c>
-      <c r="F67" s="23"/>
+      <c r="F67" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
@@ -2920,13 +3042,15 @@
       <c r="E68" s="22">
         <v>1.0</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
@@ -2948,13 +3072,15 @@
       <c r="E69" s="22">
         <v>1.0</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
@@ -2976,13 +3102,15 @@
       <c r="E70" s="22">
         <v>1.0</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
@@ -3004,13 +3132,15 @@
       <c r="E71" s="22">
         <v>0.0</v>
       </c>
-      <c r="F71" s="23"/>
+      <c r="F71" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
@@ -3032,13 +3162,15 @@
       <c r="E72" s="22">
         <v>1.0</v>
       </c>
-      <c r="F72" s="23"/>
+      <c r="F72" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
@@ -3060,13 +3192,15 @@
       <c r="E73" s="22">
         <v>1.0</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -3088,13 +3222,15 @@
       <c r="E74" s="22">
         <v>1.0</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
@@ -3116,13 +3252,15 @@
       <c r="E75" s="22">
         <v>1.0</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
@@ -3144,13 +3282,15 @@
       <c r="E76" s="22">
         <v>0.0</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
@@ -3172,13 +3312,15 @@
       <c r="E77" s="22">
         <v>1.0</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
@@ -3200,13 +3342,15 @@
       <c r="E78" s="22">
         <v>1.0</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
@@ -3228,13 +3372,15 @@
       <c r="E79" s="22">
         <v>1.0</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
@@ -3256,13 +3402,15 @@
       <c r="E80" s="22">
         <v>0.0</v>
       </c>
-      <c r="F80" s="23"/>
+      <c r="F80" s="22">
+        <v>1.0</v>
+      </c>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>

--- a/attendance-files/SIP/SIP (G) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (G) Attendance Sheet.xlsx
@@ -1215,12 +1215,14 @@
       <c r="F7" s="22">
         <v>1.0</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f t="shared" ref="J7:J80" si="1">SUM(E7:I7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1245,12 +1247,14 @@
       <c r="F8" s="22">
         <v>1.0</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1275,12 +1279,14 @@
       <c r="F9" s="22">
         <v>1.0</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -1305,12 +1311,14 @@
       <c r="F10" s="22">
         <v>1.0</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -1335,12 +1343,14 @@
       <c r="F11" s="22">
         <v>0.0</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
@@ -1365,12 +1375,14 @@
       <c r="F12" s="22">
         <v>0.0</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
@@ -1395,7 +1407,9 @@
       <c r="F13" s="22">
         <v>1.0</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23">
@@ -1425,12 +1439,14 @@
       <c r="F14" s="22">
         <v>1.0</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -1455,12 +1471,14 @@
       <c r="F15" s="22">
         <v>1.0</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -1485,12 +1503,14 @@
       <c r="F16" s="22">
         <v>1.0</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -1515,12 +1535,14 @@
       <c r="F17" s="22">
         <v>1.0</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -1545,12 +1567,14 @@
       <c r="F18" s="22">
         <v>1.0</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1575,12 +1599,14 @@
       <c r="F19" s="22">
         <v>1.0</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1605,12 +1631,14 @@
       <c r="F20" s="22">
         <v>1.0</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1635,12 +1663,14 @@
       <c r="F21" s="22">
         <v>1.0</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1665,12 +1695,14 @@
       <c r="F22" s="22">
         <v>1.0</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -1695,12 +1727,14 @@
       <c r="F23" s="22">
         <v>1.0</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -1725,12 +1759,14 @@
       <c r="F24" s="22">
         <v>0.0</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
@@ -1755,12 +1791,14 @@
       <c r="F25" s="22">
         <v>1.0</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
@@ -1785,12 +1823,14 @@
       <c r="F26" s="22">
         <v>1.0</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
@@ -1815,12 +1855,14 @@
       <c r="F27" s="22">
         <v>1.0</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
@@ -1845,7 +1887,9 @@
       <c r="F28" s="22">
         <v>1.0</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23">
@@ -1875,7 +1919,9 @@
       <c r="F29" s="22">
         <v>1.0</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23">
@@ -1905,12 +1951,14 @@
       <c r="F30" s="22">
         <v>1.0</v>
       </c>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
@@ -1935,12 +1983,14 @@
       <c r="F31" s="22">
         <v>1.0</v>
       </c>
-      <c r="G31" s="23"/>
+      <c r="G31" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
@@ -1965,12 +2015,14 @@
       <c r="F32" s="22">
         <v>1.0</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
@@ -1995,7 +2047,9 @@
       <c r="F33" s="22">
         <v>1.0</v>
       </c>
-      <c r="G33" s="23"/>
+      <c r="G33" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23">
@@ -2025,7 +2079,9 @@
       <c r="F34" s="22">
         <v>1.0</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23">
@@ -2055,12 +2111,14 @@
       <c r="F35" s="22">
         <v>1.0</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
@@ -2085,7 +2143,9 @@
       <c r="F36" s="22">
         <v>1.0</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23">
@@ -2115,12 +2175,14 @@
       <c r="F37" s="22">
         <v>1.0</v>
       </c>
-      <c r="G37" s="23"/>
+      <c r="G37" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
@@ -2145,12 +2207,14 @@
       <c r="F38" s="22">
         <v>1.0</v>
       </c>
-      <c r="G38" s="23"/>
+      <c r="G38" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
@@ -2175,12 +2239,14 @@
       <c r="F39" s="22">
         <v>1.0</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
@@ -2205,12 +2271,14 @@
       <c r="F40" s="22">
         <v>1.0</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
@@ -2235,12 +2303,14 @@
       <c r="F41" s="22">
         <v>1.0</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
@@ -2265,12 +2335,14 @@
       <c r="F42" s="22">
         <v>1.0</v>
       </c>
-      <c r="G42" s="23"/>
+      <c r="G42" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
@@ -2295,7 +2367,9 @@
       <c r="F43" s="22">
         <v>1.0</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23">
@@ -2325,12 +2399,14 @@
       <c r="F44" s="22">
         <v>1.0</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
@@ -2355,12 +2431,14 @@
       <c r="F45" s="22">
         <v>1.0</v>
       </c>
-      <c r="G45" s="23"/>
+      <c r="G45" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
@@ -2385,12 +2463,14 @@
       <c r="F46" s="22">
         <v>0.0</v>
       </c>
-      <c r="G46" s="23"/>
+      <c r="G46" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
@@ -2415,12 +2495,14 @@
       <c r="F47" s="22">
         <v>1.0</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
@@ -2445,12 +2527,14 @@
       <c r="F48" s="22">
         <v>0.0</v>
       </c>
-      <c r="G48" s="23"/>
+      <c r="G48" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
@@ -2475,12 +2559,14 @@
       <c r="F49" s="22">
         <v>1.0</v>
       </c>
-      <c r="G49" s="23"/>
+      <c r="G49" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
@@ -2505,7 +2591,9 @@
       <c r="F50" s="22">
         <v>1.0</v>
       </c>
-      <c r="G50" s="23"/>
+      <c r="G50" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23">
@@ -2535,7 +2623,9 @@
       <c r="F51" s="22">
         <v>1.0</v>
       </c>
-      <c r="G51" s="23"/>
+      <c r="G51" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23">
@@ -2565,7 +2655,9 @@
       <c r="F52" s="22">
         <v>1.0</v>
       </c>
-      <c r="G52" s="23"/>
+      <c r="G52" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23">
@@ -2595,12 +2687,14 @@
       <c r="F53" s="22">
         <v>1.0</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
@@ -2625,12 +2719,14 @@
       <c r="F54" s="22">
         <v>1.0</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
@@ -2655,12 +2751,14 @@
       <c r="F55" s="22">
         <v>1.0</v>
       </c>
-      <c r="G55" s="23"/>
+      <c r="G55" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
@@ -2685,7 +2783,9 @@
       <c r="F56" s="22">
         <v>1.0</v>
       </c>
-      <c r="G56" s="23"/>
+      <c r="G56" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23">
@@ -2715,7 +2815,9 @@
       <c r="F57" s="22">
         <v>1.0</v>
       </c>
-      <c r="G57" s="23"/>
+      <c r="G57" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23">
@@ -2745,7 +2847,9 @@
       <c r="F58" s="22">
         <v>1.0</v>
       </c>
-      <c r="G58" s="23"/>
+      <c r="G58" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23">
@@ -2775,12 +2879,14 @@
       <c r="F59" s="22">
         <v>1.0</v>
       </c>
-      <c r="G59" s="23"/>
+      <c r="G59" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
@@ -2805,12 +2911,14 @@
       <c r="F60" s="22">
         <v>1.0</v>
       </c>
-      <c r="G60" s="23"/>
+      <c r="G60" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
@@ -2835,12 +2943,14 @@
       <c r="F61" s="22">
         <v>1.0</v>
       </c>
-      <c r="G61" s="23"/>
+      <c r="G61" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
@@ -2865,12 +2975,14 @@
       <c r="F62" s="22">
         <v>1.0</v>
       </c>
-      <c r="G62" s="23"/>
+      <c r="G62" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
@@ -2895,7 +3007,9 @@
       <c r="F63" s="22">
         <v>1.0</v>
       </c>
-      <c r="G63" s="23"/>
+      <c r="G63" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23">
@@ -2925,7 +3039,9 @@
       <c r="F64" s="22">
         <v>1.0</v>
       </c>
-      <c r="G64" s="23"/>
+      <c r="G64" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23">
@@ -2955,12 +3071,14 @@
       <c r="F65" s="22">
         <v>1.0</v>
       </c>
-      <c r="G65" s="23"/>
+      <c r="G65" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -2985,12 +3103,14 @@
       <c r="F66" s="22">
         <v>1.0</v>
       </c>
-      <c r="G66" s="23"/>
+      <c r="G66" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
@@ -3015,7 +3135,9 @@
       <c r="F67" s="22">
         <v>1.0</v>
       </c>
-      <c r="G67" s="23"/>
+      <c r="G67" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23">
@@ -3045,7 +3167,9 @@
       <c r="F68" s="22">
         <v>1.0</v>
       </c>
-      <c r="G68" s="23"/>
+      <c r="G68" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23">
@@ -3075,12 +3199,14 @@
       <c r="F69" s="22">
         <v>1.0</v>
       </c>
-      <c r="G69" s="23"/>
+      <c r="G69" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
@@ -3105,12 +3231,14 @@
       <c r="F70" s="22">
         <v>1.0</v>
       </c>
-      <c r="G70" s="23"/>
+      <c r="G70" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
@@ -3135,12 +3263,14 @@
       <c r="F71" s="22">
         <v>1.0</v>
       </c>
-      <c r="G71" s="23"/>
+      <c r="G71" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
@@ -3165,12 +3295,14 @@
       <c r="F72" s="22">
         <v>1.0</v>
       </c>
-      <c r="G72" s="23"/>
+      <c r="G72" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
@@ -3195,7 +3327,9 @@
       <c r="F73" s="22">
         <v>1.0</v>
       </c>
-      <c r="G73" s="23"/>
+      <c r="G73" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23">
@@ -3225,12 +3359,14 @@
       <c r="F74" s="22">
         <v>1.0</v>
       </c>
-      <c r="G74" s="23"/>
+      <c r="G74" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
@@ -3255,12 +3391,14 @@
       <c r="F75" s="22">
         <v>1.0</v>
       </c>
-      <c r="G75" s="23"/>
+      <c r="G75" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
@@ -3285,12 +3423,14 @@
       <c r="F76" s="22">
         <v>1.0</v>
       </c>
-      <c r="G76" s="23"/>
+      <c r="G76" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
@@ -3315,7 +3455,9 @@
       <c r="F77" s="22">
         <v>1.0</v>
       </c>
-      <c r="G77" s="23"/>
+      <c r="G77" s="22">
+        <v>0.0</v>
+      </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23">
@@ -3345,12 +3487,14 @@
       <c r="F78" s="22">
         <v>1.0</v>
       </c>
-      <c r="G78" s="23"/>
+      <c r="G78" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
@@ -3375,12 +3519,14 @@
       <c r="F79" s="22">
         <v>1.0</v>
       </c>
-      <c r="G79" s="23"/>
+      <c r="G79" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
@@ -3405,12 +3551,14 @@
       <c r="F80" s="22">
         <v>1.0</v>
       </c>
-      <c r="G80" s="23"/>
+      <c r="G80" s="22">
+        <v>1.0</v>
+      </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
@@ -3425,7 +3573,7 @@
       <c r="D81" s="20"/>
       <c r="E81" s="26"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+      <c r="G81" s="22"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>

--- a/attendance-files/SIP/SIP (G) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (G) Attendance Sheet.xlsx
@@ -1218,13 +1218,11 @@
       <c r="G7" s="22">
         <v>1.0</v>
       </c>
-      <c r="H7" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f t="shared" ref="J7:J80" si="1">SUM(E7:I7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -1252,13 +1250,11 @@
       <c r="G8" s="22">
         <v>1.0</v>
       </c>
-      <c r="H8" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
@@ -1286,13 +1282,11 @@
       <c r="G9" s="22">
         <v>1.0</v>
       </c>
-      <c r="H9" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -1320,13 +1314,11 @@
       <c r="G10" s="22">
         <v>1.0</v>
       </c>
-      <c r="H10" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -1354,13 +1346,11 @@
       <c r="G11" s="22">
         <v>1.0</v>
       </c>
-      <c r="H11" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
@@ -1388,9 +1378,7 @@
       <c r="G12" s="22">
         <v>1.0</v>
       </c>
-      <c r="H12" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23">
         <f t="shared" si="1"/>
@@ -1422,13 +1410,11 @@
       <c r="G13" s="22">
         <v>0.0</v>
       </c>
-      <c r="H13" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
@@ -1456,13 +1442,11 @@
       <c r="G14" s="22">
         <v>1.0</v>
       </c>
-      <c r="H14" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -1490,13 +1474,11 @@
       <c r="G15" s="22">
         <v>1.0</v>
       </c>
-      <c r="H15" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -1524,9 +1506,7 @@
       <c r="G16" s="22">
         <v>1.0</v>
       </c>
-      <c r="H16" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23">
         <f t="shared" si="1"/>
@@ -1558,13 +1538,11 @@
       <c r="G17" s="22">
         <v>1.0</v>
       </c>
-      <c r="H17" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -1592,13 +1570,11 @@
       <c r="G18" s="22">
         <v>1.0</v>
       </c>
-      <c r="H18" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1626,13 +1602,11 @@
       <c r="G19" s="22">
         <v>1.0</v>
       </c>
-      <c r="H19" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1660,13 +1634,11 @@
       <c r="G20" s="22">
         <v>1.0</v>
       </c>
-      <c r="H20" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1694,13 +1666,11 @@
       <c r="G21" s="22">
         <v>1.0</v>
       </c>
-      <c r="H21" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1728,13 +1698,11 @@
       <c r="G22" s="22">
         <v>1.0</v>
       </c>
-      <c r="H22" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
@@ -1762,13 +1730,11 @@
       <c r="G23" s="22">
         <v>1.0</v>
       </c>
-      <c r="H23" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -1796,13 +1762,11 @@
       <c r="G24" s="22">
         <v>1.0</v>
       </c>
-      <c r="H24" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
@@ -1830,13 +1794,11 @@
       <c r="G25" s="22">
         <v>1.0</v>
       </c>
-      <c r="H25" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
@@ -1864,13 +1826,11 @@
       <c r="G26" s="22">
         <v>1.0</v>
       </c>
-      <c r="H26" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
@@ -1898,13 +1858,11 @@
       <c r="G27" s="22">
         <v>1.0</v>
       </c>
-      <c r="H27" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
@@ -1932,13 +1890,11 @@
       <c r="G28" s="22">
         <v>0.0</v>
       </c>
-      <c r="H28" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
@@ -1966,13 +1922,11 @@
       <c r="G29" s="22">
         <v>0.0</v>
       </c>
-      <c r="H29" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
@@ -2000,13 +1954,11 @@
       <c r="G30" s="22">
         <v>1.0</v>
       </c>
-      <c r="H30" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
@@ -2034,13 +1986,11 @@
       <c r="G31" s="22">
         <v>1.0</v>
       </c>
-      <c r="H31" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
@@ -2068,9 +2018,7 @@
       <c r="G32" s="22">
         <v>1.0</v>
       </c>
-      <c r="H32" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23">
         <f t="shared" si="1"/>
@@ -2102,13 +2050,11 @@
       <c r="G33" s="22">
         <v>0.0</v>
       </c>
-      <c r="H33" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
@@ -2136,13 +2082,11 @@
       <c r="G34" s="22">
         <v>0.0</v>
       </c>
-      <c r="H34" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
@@ -2170,13 +2114,11 @@
       <c r="G35" s="22">
         <v>1.0</v>
       </c>
-      <c r="H35" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
@@ -2204,13 +2146,11 @@
       <c r="G36" s="22">
         <v>0.0</v>
       </c>
-      <c r="H36" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
@@ -2238,9 +2178,7 @@
       <c r="G37" s="22">
         <v>1.0</v>
       </c>
-      <c r="H37" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23">
         <f t="shared" si="1"/>
@@ -2272,9 +2210,7 @@
       <c r="G38" s="22">
         <v>1.0</v>
       </c>
-      <c r="H38" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23">
         <f t="shared" si="1"/>
@@ -2306,9 +2242,7 @@
       <c r="G39" s="22">
         <v>1.0</v>
       </c>
-      <c r="H39" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23">
         <f t="shared" si="1"/>
@@ -2340,13 +2274,11 @@
       <c r="G40" s="22">
         <v>1.0</v>
       </c>
-      <c r="H40" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
@@ -2374,13 +2306,11 @@
       <c r="G41" s="22">
         <v>1.0</v>
       </c>
-      <c r="H41" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
@@ -2408,13 +2338,11 @@
       <c r="G42" s="22">
         <v>1.0</v>
       </c>
-      <c r="H42" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
@@ -2442,13 +2370,11 @@
       <c r="G43" s="22">
         <v>0.0</v>
       </c>
-      <c r="H43" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
@@ -2476,13 +2402,11 @@
       <c r="G44" s="22">
         <v>1.0</v>
       </c>
-      <c r="H44" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
@@ -2510,9 +2434,7 @@
       <c r="G45" s="22">
         <v>1.0</v>
       </c>
-      <c r="H45" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23">
         <f t="shared" si="1"/>
@@ -2544,9 +2466,7 @@
       <c r="G46" s="22">
         <v>1.0</v>
       </c>
-      <c r="H46" s="22">
-        <v>0.0</v>
-      </c>
+      <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23">
         <f t="shared" si="1"/>
@@ -2578,13 +2498,11 @@
       <c r="G47" s="22">
         <v>1.0</v>
       </c>
-      <c r="H47" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
@@ -2612,13 +2530,11 @@
       <c r="G48" s="22">
         <v>1.0</v>
       </c>
-      <c r="H48" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
@@ -2646,13 +2562,11 @@
       <c r="G49" s="22">
         <v>1.0</v>
       </c>
-      <c r="H49" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
@@ -2680,13 +2594,11 @@
       <c r="G50" s="22">
         <v>0.0</v>
       </c>
-      <c r="H50" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
@@ -2714,13 +2626,11 @@
       <c r="G51" s="22">
         <v>0.0</v>
       </c>
-      <c r="H51" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
@@ -2748,13 +2658,11 @@
       <c r="G52" s="22">
         <v>0.0</v>
       </c>
-      <c r="H52" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
@@ -2782,13 +2690,11 @@
       <c r="G53" s="22">
         <v>1.0</v>
       </c>
-      <c r="H53" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
@@ -2816,13 +2722,11 @@
       <c r="G54" s="22">
         <v>1.0</v>
       </c>
-      <c r="H54" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
@@ -2850,13 +2754,11 @@
       <c r="G55" s="22">
         <v>1.0</v>
       </c>
-      <c r="H55" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
@@ -2884,13 +2786,11 @@
       <c r="G56" s="22">
         <v>0.0</v>
       </c>
-      <c r="H56" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
@@ -2918,13 +2818,11 @@
       <c r="G57" s="22">
         <v>0.0</v>
       </c>
-      <c r="H57" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
@@ -2952,13 +2850,11 @@
       <c r="G58" s="22">
         <v>0.0</v>
       </c>
-      <c r="H58" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H58" s="23"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
@@ -2986,13 +2882,11 @@
       <c r="G59" s="22">
         <v>1.0</v>
       </c>
-      <c r="H59" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
@@ -3020,13 +2914,11 @@
       <c r="G60" s="22">
         <v>1.0</v>
       </c>
-      <c r="H60" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
@@ -3054,13 +2946,11 @@
       <c r="G61" s="22">
         <v>1.0</v>
       </c>
-      <c r="H61" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
@@ -3088,13 +2978,11 @@
       <c r="G62" s="22">
         <v>1.0</v>
       </c>
-      <c r="H62" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
@@ -3122,13 +3010,11 @@
       <c r="G63" s="22">
         <v>0.0</v>
       </c>
-      <c r="H63" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
@@ -3156,13 +3042,11 @@
       <c r="G64" s="22">
         <v>0.0</v>
       </c>
-      <c r="H64" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
@@ -3190,13 +3074,11 @@
       <c r="G65" s="22">
         <v>1.0</v>
       </c>
-      <c r="H65" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -3224,13 +3106,11 @@
       <c r="G66" s="22">
         <v>1.0</v>
       </c>
-      <c r="H66" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
@@ -3258,13 +3138,11 @@
       <c r="G67" s="22">
         <v>0.0</v>
       </c>
-      <c r="H67" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
@@ -3292,13 +3170,11 @@
       <c r="G68" s="22">
         <v>0.0</v>
       </c>
-      <c r="H68" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
@@ -3326,13 +3202,11 @@
       <c r="G69" s="22">
         <v>1.0</v>
       </c>
-      <c r="H69" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
@@ -3360,13 +3234,11 @@
       <c r="G70" s="22">
         <v>1.0</v>
       </c>
-      <c r="H70" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
@@ -3394,13 +3266,11 @@
       <c r="G71" s="22">
         <v>1.0</v>
       </c>
-      <c r="H71" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
@@ -3428,13 +3298,11 @@
       <c r="G72" s="22">
         <v>1.0</v>
       </c>
-      <c r="H72" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
@@ -3462,13 +3330,11 @@
       <c r="G73" s="22">
         <v>0.0</v>
       </c>
-      <c r="H73" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -3496,13 +3362,11 @@
       <c r="G74" s="22">
         <v>1.0</v>
       </c>
-      <c r="H74" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
@@ -3530,13 +3394,11 @@
       <c r="G75" s="22">
         <v>1.0</v>
       </c>
-      <c r="H75" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
@@ -3564,13 +3426,11 @@
       <c r="G76" s="22">
         <v>1.0</v>
       </c>
-      <c r="H76" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
@@ -3598,13 +3458,11 @@
       <c r="G77" s="22">
         <v>0.0</v>
       </c>
-      <c r="H77" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
@@ -3632,13 +3490,11 @@
       <c r="G78" s="22">
         <v>1.0</v>
       </c>
-      <c r="H78" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
@@ -3666,13 +3522,11 @@
       <c r="G79" s="22">
         <v>1.0</v>
       </c>
-      <c r="H79" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
@@ -3700,13 +3554,11 @@
       <c r="G80" s="22">
         <v>1.0</v>
       </c>
-      <c r="H80" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
